--- a/output_data/charts/shares-Pickaway.xlsx
+++ b/output_data/charts/shares-Pickaway.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -212,20 +212,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.309375187401454</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.365603108706885</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.194137033351114</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.050379925535633</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.997574413544266</c:v>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0673763600975226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +231,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +275,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24.62520624297744</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.52065699120473</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.02781932670075</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.9805798143647</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.28527151900444</c:v>
+                  <c:v>18.11204362467755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.55299907366853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.02273407324893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.58288771884175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.27637783381969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +302,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +346,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.804676854356002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.785616045914973</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.856715525303355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.828595555840355</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.607465305762671</c:v>
+                  <c:v>13.11957536219217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.61695971007592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.83487885290893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.54573601010786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.71674976028608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +373,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +417,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1721540377183367</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1881195445273965</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1720011769564989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1759077339897893</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4446840366396065</c:v>
+                  <c:v>6.577720376108637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.19347367767682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.371522603703007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.99493382347559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.235143549552577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +444,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +488,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.511512848786396</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.73880324556805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.15345494147914</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.625668426637279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.641557739914385</c:v>
+                  <c:v>2.223656841049516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.28637580679277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.951839665194178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.511961724962697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.674841664654155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +515,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +559,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.31030773227921</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.32602562484076</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.87436434510046</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.12721645270174</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.22705834286749</c:v>
+                  <c:v>1.233770892453276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.425367171023165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.540532456053639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5761328135426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.825899473857119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +586,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +630,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.233770892453276</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.425367171023165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.540532456053639</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5761328135426</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.825899473857119</c:v>
+                  <c:v>14.31030773227921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.32602562484076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.87436434510046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.12721645270174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.22705834286749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +657,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +701,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.223656841049516</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.28637580679277</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.951839665194178</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.511961724962697</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.674841664654155</c:v>
+                  <c:v>9.511512848786396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.73880324556805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.15345494147914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.625668426637279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.641557739914385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +728,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +772,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.577720376108637</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.19347367767682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.371522603703007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.99493382347559</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.235143549552577</c:v>
+                  <c:v>0.1721540377183367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1881195445273965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1720011769564989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1759077339897893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4446840366396065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +799,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +843,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.11957536219217</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.61695971007592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.83487885290893</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.54573601010786</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.71674976028608</c:v>
+                  <c:v>2.804676854356002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.785616045914973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.856715525303355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.828595555840355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.607465305762671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +870,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +914,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.11204362467755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.55299907366853</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.02273407324893</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.58288771884175</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.27637783381969</c:v>
+                  <c:v>24.62520624297744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.52065699120473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.02781932670075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.9805798143647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.28527151900444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +941,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -993,11 +984,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0673763600975226</c:v>
+                <c:pt idx="0">
+                  <c:v>7.309375187401454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.365603108706885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.194137033351114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.050379925535633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.997574413544266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1042,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1114,15 +1113,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1436,19 +1435,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1496,114 +1483,114 @@
       <c r="A2" s="2">
         <v>2018</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
+        <v>18.11204362467755</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13.11957536219217</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.577720376108637</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.223656841049516</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.233770892453276</v>
+      </c>
+      <c r="H2" s="1">
+        <v>14.31030773227921</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9.511512848786396</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.1721540377183367</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.804676854356002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>24.62520624297744</v>
+      </c>
+      <c r="M2" s="1">
         <v>7.309375187401454</v>
-      </c>
-      <c r="C2" s="1">
-        <v>24.62520624297744</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.804676854356002</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.1721540377183367</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9.511512848786396</v>
-      </c>
-      <c r="G2" s="1">
-        <v>14.31030773227921</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.233770892453276</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.223656841049516</v>
-      </c>
-      <c r="J2" s="1">
-        <v>6.577720376108637</v>
-      </c>
-      <c r="K2" s="1">
-        <v>13.11957536219217</v>
-      </c>
-      <c r="L2" s="1">
-        <v>18.11204362467755</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
+        <v>17.55299907366853</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.61695971007592</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.19347367767682</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.28637580679277</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.425367171023165</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14.32602562484076</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.73880324556805</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.1881195445273965</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.785616045914973</v>
+      </c>
+      <c r="L3" s="1">
+        <v>24.52065699120473</v>
+      </c>
+      <c r="M3" s="1">
         <v>7.365603108706885</v>
-      </c>
-      <c r="C3" s="1">
-        <v>24.52065699120473</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.785616045914973</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.1881195445273965</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.73880324556805</v>
-      </c>
-      <c r="G3" s="1">
-        <v>14.32602562484076</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.425367171023165</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.28637580679277</v>
-      </c>
-      <c r="J3" s="1">
-        <v>6.19347367767682</v>
-      </c>
-      <c r="K3" s="1">
-        <v>13.61695971007592</v>
-      </c>
-      <c r="L3" s="1">
-        <v>17.55299907366853</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
+        <v>18.02273407324893</v>
+      </c>
+      <c r="D4" s="1">
+        <v>13.83487885290893</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.371522603703007</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.951839665194178</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.540532456053639</v>
+      </c>
+      <c r="H4" s="1">
+        <v>14.87436434510046</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.15345494147914</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.1720011769564989</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.856715525303355</v>
+      </c>
+      <c r="L4" s="1">
+        <v>24.02781932670075</v>
+      </c>
+      <c r="M4" s="1">
         <v>7.194137033351114</v>
-      </c>
-      <c r="C4" s="1">
-        <v>24.02781932670075</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.856715525303355</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1720011769564989</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9.15345494147914</v>
-      </c>
-      <c r="G4" s="1">
-        <v>14.87436434510046</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.540532456053639</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.951839665194178</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6.371522603703007</v>
-      </c>
-      <c r="K4" s="1">
-        <v>13.83487885290893</v>
-      </c>
-      <c r="L4" s="1">
-        <v>18.02273407324893</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1611,40 +1598,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18.58288771884175</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12.54573601010786</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.99493382347559</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.511961724962697</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.5761328135426</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16.12721645270174</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9.625668426637279</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.1759077339897893</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.828595555840355</v>
+      </c>
+      <c r="L5" s="1">
+        <v>22.9805798143647</v>
+      </c>
+      <c r="M5" s="1">
         <v>7.050379925535633</v>
-      </c>
-      <c r="C5" s="1">
-        <v>22.9805798143647</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.828595555840355</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.1759077339897893</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9.625668426637279</v>
-      </c>
-      <c r="G5" s="1">
-        <v>16.12721645270174</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.5761328135426</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.511961724962697</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5.99493382347559</v>
-      </c>
-      <c r="K5" s="1">
-        <v>12.54573601010786</v>
-      </c>
-      <c r="L5" s="1">
-        <v>18.58288771884175</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1652,40 +1639,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.0673763600975226</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19.27637783381969</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11.71674976028608</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.235143549552577</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.674841664654155</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.825899473857119</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15.22705834286749</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9.641557739914385</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.4446840366396065</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.607465305762671</v>
+      </c>
+      <c r="L6" s="1">
+        <v>23.28527151900444</v>
+      </c>
+      <c r="M6" s="1">
         <v>7.997574413544266</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23.28527151900444</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.607465305762671</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.4446840366396065</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9.641557739914385</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15.22705834286749</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.825899473857119</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.674841664654155</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.235143549552577</v>
-      </c>
-      <c r="K6" s="1">
-        <v>11.71674976028608</v>
-      </c>
-      <c r="L6" s="1">
-        <v>19.27637783381969</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.0673763600975226</v>
       </c>
     </row>
   </sheetData>
